--- a/medicine/Sexualité et sexologie/Lévi_Noël/Lévi_Noël.xlsx
+++ b/medicine/Sexualité et sexologie/Lévi_Noël/Lévi_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9vi_No%C3%ABl</t>
+          <t>Lévi_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lévi Noël est un prêtre catholique canadien pédophile condamné en 2010 à 8 ans de prison.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9vi_No%C3%ABl</t>
+          <t>Lévi_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des correspondances, dès le début des années 1960, entre des membres de l’Église catholique dont l'évêque Valéry Vienneau, attestent d'allégations d’abus dans les paroisses où Lévi Noël travaillait. À la suite de ces échanges le prêtre était, dans plus d’une demi-douzaine de cas, déplacé dans une nouvelle communauté
-[1].
-En 2010, Lévi Noël est condamné à huit ans de prison à la suite de 22 accusations concernant des cas de grossière indécence et d'attentats à la pudeur. Les agressions se sont produites de 1958 à 1981 sur 18 garçons âgés de 8 à 16 ans. Certains enfants ont subi les agressions du prêtre pendant plusieurs années[2],[3].
-En 2012, le Vatican radie Lévi Noël, il redevient ainsi un simple laïc[4].
-Lévi Noël est mort le 13 mai 2016 à l'âge de 89 ans alors qu'il vivait, dans une résidence pour personnes âgées, au Québec[2].
-En 2016, une tentative d'entente à l'amiable entre Conrad Brideau victime du prêtre Lévi Noël et le diocèse de Bathurst a échoué ce qui rend un procès inévitable[5].
+.
+En 2010, Lévi Noël est condamné à huit ans de prison à la suite de 22 accusations concernant des cas de grossière indécence et d'attentats à la pudeur. Les agressions se sont produites de 1958 à 1981 sur 18 garçons âgés de 8 à 16 ans. Certains enfants ont subi les agressions du prêtre pendant plusieurs années,.
+En 2012, le Vatican radie Lévi Noël, il redevient ainsi un simple laïc.
+Lévi Noël est mort le 13 mai 2016 à l'âge de 89 ans alors qu'il vivait, dans une résidence pour personnes âgées, au Québec.
+En 2016, une tentative d'entente à l'amiable entre Conrad Brideau victime du prêtre Lévi Noël et le diocèse de Bathurst a échoué ce qui rend un procès inévitable.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9vi_No%C3%ABl</t>
+          <t>Lévi_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Documentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Silence, réalisé par Renée Blanchar en 2020, évoque plusieurs affaires de prêtres pédophiles en Acadie dont celles de Camille Léger et Lévi Noël[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Silence, réalisé par Renée Blanchar en 2020, évoque plusieurs affaires de prêtres pédophiles en Acadie dont celles de Camille Léger et Lévi Noël.</t>
         </is>
       </c>
     </row>
